--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Vtn</t>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H2">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I2">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J2">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.102926</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N2">
-        <v>0.205852</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O2">
-        <v>0.03821605677617539</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P2">
-        <v>0.02724178813968781</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q2">
-        <v>0.33899038341</v>
+        <v>33.11043432855667</v>
       </c>
       <c r="R2">
-        <v>1.35596153364</v>
+        <v>198.66260597134</v>
       </c>
       <c r="S2">
-        <v>0.002850461801426161</v>
+        <v>0.2008491098663154</v>
       </c>
       <c r="T2">
-        <v>0.001777967355837206</v>
+        <v>0.211332580850483</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,108 +596,108 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H3">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I3">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J3">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.169947333333333</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N3">
-        <v>6.509842000000001</v>
+        <v>1.477702</v>
       </c>
       <c r="O3">
-        <v>0.8056937070514454</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P3">
-        <v>0.8614914433031574</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q3">
-        <v>7.146797490490001</v>
+        <v>11.273857728385</v>
       </c>
       <c r="R3">
-        <v>42.88078494294001</v>
+        <v>45.09543091353999</v>
       </c>
       <c r="S3">
-        <v>0.06009513616358576</v>
+        <v>0.0683876347569589</v>
       </c>
       <c r="T3">
-        <v>0.05622625268473463</v>
+        <v>0.04797145266934594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.293535</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H4">
-        <v>6.587070000000001</v>
+        <v>13.025402</v>
       </c>
       <c r="I4">
-        <v>0.07458806695104117</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J4">
-        <v>0.0652661766078026</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4203924999999999</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N4">
-        <v>0.8407849999999999</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O4">
-        <v>0.1560902361723793</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P4">
-        <v>0.1112667685571547</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q4">
-        <v>1.3845774124875</v>
+        <v>9.421478778498223</v>
       </c>
       <c r="R4">
-        <v>5.53830964995</v>
+        <v>84.79330900648401</v>
       </c>
       <c r="S4">
-        <v>0.01164246898602926</v>
+        <v>0.05715103606036678</v>
       </c>
       <c r="T4">
-        <v>0.007261956567230755</v>
+        <v>0.09020111632773974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,72 +726,72 @@
         <v>13.025402</v>
       </c>
       <c r="I5">
-        <v>0.09832794210883093</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J5">
-        <v>0.1290586235336234</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.102926</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N5">
-        <v>0.205852</v>
+        <v>1.477702</v>
       </c>
       <c r="O5">
-        <v>0.03821605677617539</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P5">
-        <v>0.02724178813968781</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q5">
-        <v>0.4468841754173334</v>
+        <v>3.207943764367333</v>
       </c>
       <c r="R5">
-        <v>2.681305052504</v>
+        <v>19.247662586204</v>
       </c>
       <c r="S5">
-        <v>0.00375770621831557</v>
+        <v>0.01945950461358573</v>
       </c>
       <c r="T5">
-        <v>0.003515787679902696</v>
+        <v>0.02047520815401259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.341800666666667</v>
+        <v>37.0732365</v>
       </c>
       <c r="H6">
-        <v>13.025402</v>
+        <v>74.146473</v>
       </c>
       <c r="I6">
-        <v>0.09832794210883093</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J6">
-        <v>0.1290586235336234</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,54 +806,54 @@
         <v>6.509842000000001</v>
       </c>
       <c r="O6">
-        <v>0.8056937070514454</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P6">
-        <v>0.8614914433031574</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q6">
-        <v>9.421478778498223</v>
+        <v>80.446970681211</v>
       </c>
       <c r="R6">
-        <v>84.79330900648401</v>
+        <v>482.6818240872661</v>
       </c>
       <c r="S6">
-        <v>0.07922220418440391</v>
+        <v>0.487994276741556</v>
       </c>
       <c r="T6">
-        <v>0.1111828998587001</v>
+        <v>0.513465506582032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.341800666666667</v>
+        <v>37.0732365</v>
       </c>
       <c r="H7">
-        <v>13.025402</v>
+        <v>74.146473</v>
       </c>
       <c r="I7">
-        <v>0.09832794210883093</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J7">
-        <v>0.1290586235336234</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,586 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4203924999999999</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N7">
-        <v>0.8407849999999999</v>
+        <v>1.477702</v>
       </c>
       <c r="O7">
-        <v>0.1560902361723793</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P7">
-        <v>0.1112667685571547</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q7">
-        <v>1.825260436761666</v>
+        <v>27.3915978612615</v>
       </c>
       <c r="R7">
-        <v>10.95156262057</v>
+        <v>109.566391445046</v>
       </c>
       <c r="S7">
-        <v>0.01534803170611146</v>
+        <v>0.1661584379612172</v>
       </c>
       <c r="T7">
-        <v>0.01435993599502064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1011933333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.30358</v>
-      </c>
-      <c r="I8">
-        <v>0.002291706364640331</v>
-      </c>
-      <c r="J8">
-        <v>0.003007939173956965</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
-      <c r="M8">
-        <v>0.102926</v>
-      </c>
-      <c r="N8">
-        <v>0.205852</v>
-      </c>
-      <c r="O8">
-        <v>0.03821605677617539</v>
-      </c>
-      <c r="P8">
-        <v>0.02724178813968781</v>
-      </c>
-      <c r="Q8">
-        <v>0.01041542502666667</v>
-      </c>
-      <c r="R8">
-        <v>0.06249255016000001</v>
-      </c>
-      <c r="S8">
-        <v>8.75799805454174E-05</v>
-      </c>
-      <c r="T8">
-        <v>8.194164171400319E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1011933333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.30358</v>
-      </c>
-      <c r="I9">
-        <v>0.002291706364640331</v>
-      </c>
-      <c r="J9">
-        <v>0.003007939173956965</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.169947333333333</v>
-      </c>
-      <c r="N9">
-        <v>6.509842000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.8056937070514454</v>
-      </c>
-      <c r="P9">
-        <v>0.8614914433031574</v>
-      </c>
-      <c r="Q9">
-        <v>0.2195842038177778</v>
-      </c>
-      <c r="R9">
-        <v>1.97625783436</v>
-      </c>
-      <c r="S9">
-        <v>0.00184641339640046</v>
-      </c>
-      <c r="T9">
-        <v>0.002591313860340293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1011933333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.30358</v>
-      </c>
-      <c r="I10">
-        <v>0.002291706364640331</v>
-      </c>
-      <c r="J10">
-        <v>0.003007939173956965</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.4203924999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.8407849999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.1560902361723793</v>
-      </c>
-      <c r="P10">
-        <v>0.1112667685571547</v>
-      </c>
-      <c r="Q10">
-        <v>0.04254091838333333</v>
-      </c>
-      <c r="R10">
-        <v>0.2552455103</v>
-      </c>
-      <c r="S10">
-        <v>0.000357712987694454</v>
-      </c>
-      <c r="T10">
-        <v>0.0003346836719026688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>28.2492</v>
-      </c>
-      <c r="H11">
-        <v>56.4984</v>
-      </c>
-      <c r="I11">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J11">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>0.102926</v>
-      </c>
-      <c r="N11">
-        <v>0.205852</v>
-      </c>
-      <c r="O11">
-        <v>0.03821605677617539</v>
-      </c>
-      <c r="P11">
-        <v>0.02724178813968781</v>
-      </c>
-      <c r="Q11">
-        <v>2.9075771592</v>
-      </c>
-      <c r="R11">
-        <v>11.6303086368</v>
-      </c>
-      <c r="S11">
-        <v>0.0244488871443139</v>
-      </c>
-      <c r="T11">
-        <v>0.01524992308523104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>28.2492</v>
-      </c>
-      <c r="H12">
-        <v>56.4984</v>
-      </c>
-      <c r="I12">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J12">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.169947333333333</v>
-      </c>
-      <c r="N12">
-        <v>6.509842000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.8056937070514454</v>
-      </c>
-      <c r="P12">
-        <v>0.8614914433031574</v>
-      </c>
-      <c r="Q12">
-        <v>61.29927620880001</v>
-      </c>
-      <c r="R12">
-        <v>367.7956572528001</v>
-      </c>
-      <c r="S12">
-        <v>0.5154460239567416</v>
-      </c>
-      <c r="T12">
-        <v>0.4822619639207129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>28.2492</v>
-      </c>
-      <c r="H13">
-        <v>56.4984</v>
-      </c>
-      <c r="I13">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J13">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.4203924999999999</v>
-      </c>
-      <c r="N13">
-        <v>0.8407849999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.1560902361723793</v>
-      </c>
-      <c r="P13">
-        <v>0.1112667685571547</v>
-      </c>
-      <c r="Q13">
-        <v>11.875751811</v>
-      </c>
-      <c r="R13">
-        <v>47.503007244</v>
-      </c>
-      <c r="S13">
-        <v>0.09985940179173369</v>
-      </c>
-      <c r="T13">
-        <v>0.06228701485152428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H14">
-        <v>24.511791</v>
-      </c>
-      <c r="I14">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J14">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.102926</v>
-      </c>
-      <c r="N14">
-        <v>0.205852</v>
-      </c>
-      <c r="O14">
-        <v>0.03821605677617539</v>
-      </c>
-      <c r="P14">
-        <v>0.02724178813968781</v>
-      </c>
-      <c r="Q14">
-        <v>0.8409668668219999</v>
-      </c>
-      <c r="R14">
-        <v>5.045801200932</v>
-      </c>
-      <c r="S14">
-        <v>0.007071421631574335</v>
-      </c>
-      <c r="T14">
-        <v>0.006616168377002859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H15">
-        <v>24.511791</v>
-      </c>
-      <c r="I15">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J15">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.169947333333333</v>
-      </c>
-      <c r="N15">
-        <v>6.509842000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.8056937070514454</v>
-      </c>
-      <c r="P15">
-        <v>0.8614914433031574</v>
-      </c>
-      <c r="Q15">
-        <v>17.72976517189133</v>
-      </c>
-      <c r="R15">
-        <v>159.567886547022</v>
-      </c>
-      <c r="S15">
-        <v>0.1490839293503136</v>
-      </c>
-      <c r="T15">
-        <v>0.2092290129786694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H16">
-        <v>24.511791</v>
-      </c>
-      <c r="I16">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J16">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4203924999999999</v>
-      </c>
-      <c r="N16">
-        <v>0.8407849999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.1560902361723793</v>
-      </c>
-      <c r="P16">
-        <v>0.1112667685571547</v>
-      </c>
-      <c r="Q16">
-        <v>3.434857699322499</v>
-      </c>
-      <c r="R16">
-        <v>20.609146195935</v>
-      </c>
-      <c r="S16">
-        <v>0.02888262070081042</v>
-      </c>
-      <c r="T16">
-        <v>0.02702317747147634</v>
+        <v>0.1165541354163867</v>
       </c>
     </row>
   </sheetData>
